--- a/Model/Steering_Wheel_BOM.xlsx
+++ b/Model/Steering_Wheel_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm32Projects\steeringWheel_MeterBox_STM32_FreeRTOS\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9A86FE-0A03-44DE-866B-E585ADA4F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711A9D4-6D77-427C-A8B7-2C7F7736184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>物料</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -271,13 +271,85 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?abbucket=12&amp;id=42107248347&amp;ns=1&amp;spm=a230r.1.14.16.4aa253f8g8wRRc&amp;skuId=74722507319</t>
+  </si>
+  <si>
+    <t>固定顶板和底板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定PCB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=15&amp;id=542213588710&amp;ns=1&amp;spm=a230r.1.14.46.d9d41df9DMuJ1R&amp;skuId=3258324297350</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=694131607161&amp;rn=b4c1d11afca624925c0b1c19fd125620&amp;spm=a1z10.5-b.w4011-14789417929.135.155c10d2HQwGNd</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=694131607161&amp;rn=b4c1d11afca624925c0b1c19fd125620&amp;spm=a1z10.5-b.w4011-14789417929.135.155c10d2HQwGNd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=694131607161&amp;rn=b4c1d11afca624925c0b1c19fd125620&amp;skuId=4927024525235&amp;spm=a1z10.5-b.w4011-14789417929.135.155c10d2HQwGNd</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=694131607161&amp;rn=b4c1d11afca624925c0b1c19fd125620&amp;skuId=5099316943916&amp;spm=a1z10.5-b.w4011-14789417929.135.155c10d2HQwGNd</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=636175026159&amp;rn=b4c1d11afca624925c0b1c19fd125620&amp;spm=a1z10.5-b.w4011-14789417929.123.155c10d2HQwGNd&amp;skuId=4729555091450</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=693377485791&amp;rn=b4c1d11afca624925c0b1c19fd125620&amp;spm=a1z10.5-b.w4011-14789417929.139.155c10d2HQwGNd&amp;skuId=4920755308733</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=534459768753&amp;rn=bf6a99b7929cdece32aba779e1d5c875&amp;skuId=3188227407517&amp;spm=a1z10.5-b.w4011-14789417929.78.eeb3222frSMXdT</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.84.66b32d44J3jom6&amp;id=567580325565&amp;ns=1&amp;abbucket=15#detail</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=15&amp;id=41296905861&amp;ns=1&amp;skuId=3741986177674&amp;spm=a230r.1.14.34.54256b18pbL1HJ</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=630776716481</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=664863617743</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=5&amp;id=586569031072&amp;rn=6a4fb5be2f49445c1bbe85c4b66df1cd&amp;skuId=3994059560991&amp;spm=a1z10.3-b-s.w4011-16538328900.35.4c0d3d6cjOINyF</t>
+  </si>
+  <si>
+    <t>弹簧线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实车线束及模拟器线束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟器USB接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.tb.cn/h.UNSGeut?tk=zjKOd6I4gZe</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?abbucket=15&amp;id=14422856956&amp;ns=1&amp;skuId=5053017858253&amp;spm=a230r.1.14.280.4896138cQA5m9G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +379,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -366,7 +446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -386,59 +466,66 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - 着色 6" xfId="6" builtinId="50"/>
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - 着色 4" xfId="3" builtinId="43"/>
@@ -446,6 +533,7 @@
     <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,514 +811,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="178.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="5">
         <v>7</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="5">
         <v>8</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="5">
         <v>4</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>4</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="5">
         <v>8</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="6">
         <v>12</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E35" s="6">
         <v>4.7</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="E7:E14"/>
     <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{9E179279-74AB-48A2-9D7C-AB83F8BC57DE}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{50E6929B-F796-4B43-A7CC-8E7650FAB42E}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{E69C8295-9378-4610-9F71-599A40B99506}"/>
+    <hyperlink ref="F30" r:id="rId4" xr:uid="{B390A5C8-32EF-4787-90E7-753A325F377F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>